--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1469795.877436913</v>
+        <v>1538210.739923866</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6256093.202257893</v>
+        <v>6616204.920400011</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>344.4358837160473</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>214.9148368797138</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>132.8250169392109</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.75811724405756</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,7 +913,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.5279800085829</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>353.2334532242651</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.9583623026385</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>8.049597104451582</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>132.8988870233421</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>109.3916857660883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>73.48257169306775</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>245.4817911321842</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>109.4731500843528</v>
+        <v>114.9577730480035</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>131.4288108960483</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.495171407522</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>20.08472694640558</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>83.71046610478319</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,16 +2298,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>187.5234134555184</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>6.133574646794441</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>57.17380082342394</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2764,16 +2766,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>131.9969996527466</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2846,7 +2848,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.24876144511806</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>100.7890476991254</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3196,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3481,10 +3483,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>60.94899222869572</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>57.1738008234254</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>178.3859249070763</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>102.5920197719586</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3898,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016037</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>35.7563339611632</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430621</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12.56125500269384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3986,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>73.71535300153015</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>159.9413188205003</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.3315093046215</v>
+        <v>550.1887779922017</v>
       </c>
       <c r="C2" t="n">
-        <v>925.2294405284488</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>893.3600597432974</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>985.8363954090678</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.5906757491252</v>
+        <v>572.4479444367055</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.9911441515646</v>
+        <v>333.9883451770664</v>
       </c>
       <c r="C4" t="n">
-        <v>528.4294326347896</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D4" t="n">
-        <v>362.5514398363123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>192.7934360870495</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>192.7934360870495</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>192.7934360870495</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>52.89126177742406</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,46 +4494,46 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>998.6183892485328</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>753.2266345819453</v>
       </c>
       <c r="Y4" t="n">
-        <v>892.8097628705518</v>
+        <v>525.8069638960535</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.3315093046215</v>
+        <v>1991.505055583988</v>
       </c>
       <c r="C5" t="n">
-        <v>925.2294405284488</v>
+        <v>1553.362582767411</v>
       </c>
       <c r="D5" t="n">
-        <v>893.3600597432974</v>
+        <v>1117.452797941856</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>1087.718457140555</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>659.8510275497629</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>258.4531961730268</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233698</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726424</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726424</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720792</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473849</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657686</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657686</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2437.967455657686</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.309253581271</v>
+        <v>2437.967455657686</v>
       </c>
       <c r="W5" t="n">
-        <v>1353.494203032709</v>
+        <v>2437.152405109123</v>
       </c>
       <c r="X5" t="n">
-        <v>1338.392143652423</v>
+        <v>2422.050345728838</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.5906757491252</v>
+        <v>2417.804626068896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639653</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.936966890919</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070806</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326451</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>752.277104396037</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>752.277104396037</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>586.3991115975597</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>586.3991115975597</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>409.6920575593159</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>244.1007825851436</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947698</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541668</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253024</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473849</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2254.322061757676</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1975.889061010781</v>
       </c>
       <c r="V7" t="n">
-        <v>1251.378154465407</v>
+        <v>1688.933552881212</v>
       </c>
       <c r="W7" t="n">
-        <v>979.3517500516982</v>
+        <v>1416.907148467503</v>
       </c>
       <c r="X7" t="n">
-        <v>733.9599953851107</v>
+        <v>1171.515393800916</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>944.0957231150242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2232.100425464726</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.4376660667899</v>
+        <v>822.7991990816217</v>
       </c>
       <c r="C10" t="n">
-        <v>513.4376660667899</v>
+        <v>650.2374875648467</v>
       </c>
       <c r="D10" t="n">
-        <v>513.4376660667899</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="E10" t="n">
-        <v>513.4376660667899</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>336.7306120285461</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>872.2064493144727</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1291.875698540254</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>705.2562847857771</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>705.2562847857771</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>705.2562847857771</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2068.585286378065</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.442813561488</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>511.3923006645387</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>511.3923006645387</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3503.161559637919</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3140.544609571745</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.689154982779</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2316.54669156209</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2068.585286378065</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N12" t="n">
-        <v>680.001633102282</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4549980366087</v>
+        <v>1036.216302815312</v>
       </c>
       <c r="C13" t="n">
-        <v>812.8760585574645</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>646.9980657589872</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.379401819793</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.499955398248</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.066954651353</v>
+        <v>2259.828259430057</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.111446521784</v>
+        <v>1972.872751300487</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.085042108075</v>
+        <v>1700.846346886779</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.693287441488</v>
+        <v>1455.454592220191</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.273616755596</v>
+        <v>1228.034921534299</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1775.50419321927</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1775.50419321927</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.594408393714</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E14" t="n">
-        <v>905.8196635520092</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F14" t="n">
-        <v>477.952233961217</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>2149.024846375584</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>2149.024846375584</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>2149.024846375584</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>3091.227809869392</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3370.405184995446</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3007.788234929272</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2602.932780340305</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2183.790316919616</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1775.50419321927</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1066.535824598178</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C16" t="n">
-        <v>893.9741130814026</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>728.0961202829253</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2266.258586696244</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1979.303078566675</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1707.276674152967</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1461.884919486379</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y16" t="n">
-        <v>1258.354443317165</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5515,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>451.9501773887582</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.348304557487</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5543,19 +5545,19 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5595,13 +5597,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1035.728611060351</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>863.1668995435758</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>275.4768158645722</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5713,10 +5715,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1227.547229779338</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,13 +5755,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1246.54233171619</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
         <v>673.1212928181459</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,10 +5977,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5993,46 +5995,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>449.602989562749</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>449.602989562749</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>449.602989562749</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1431.851786213076</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1737.537409152261</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F28" t="n">
         <v>496.4142387799021</v>
@@ -6412,22 +6414,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2404.930957497405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6451,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
         <v>4550.100609912873</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6545,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220187</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1228.034921534295</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2443.348304557486</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>1674.355297099902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6944,10 +6946,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993934</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>3398.73351020982</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917137</v>
+        <v>3226.171798693044</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>3060.293805894567</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.384174393664</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.357769979955</v>
+        <v>4063.363554281286</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.966015313368</v>
+        <v>3817.971799614698</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>3590.552128928807</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7168,22 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7199,13 +7201,13 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
@@ -7251,25 +7253,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3435.538389938437</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3262.976678421662</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3097.098685623184</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2927.340681873922</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2750.633627835678</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244352</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5091.624192244352</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4845.744745822808</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4567.311745075914</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4280.356236946344</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4100.168434009904</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3854.776679343316</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3627.357008657424</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1442.805921820812</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1442.805921820812</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>511.3923006645387</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>925.0107940069737</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.213757500782</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2809.416720994589</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3637.726595827985</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3723.228786764879</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3464.006484081896</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3101.389534015722</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2696.534079426756</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2277.391616006067</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1869.10549230572</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2136293346052</v>
+        <v>3486.780615022735</v>
       </c>
       <c r="C43" t="n">
-        <v>764.2136293346052</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D43" t="n">
-        <v>764.2136293346052</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E43" t="n">
-        <v>594.4556255853424</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F43" t="n">
-        <v>417.7485715470987</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G43" t="n">
-        <v>252.1572965729263</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H43" t="n">
-        <v>112.2551222633008</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>4988.825572384373</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>4710.392571637479</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>4423.437063507909</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>4151.410659094201</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.451918739484</v>
+        <v>3906.018904427614</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0322480535924</v>
+        <v>3678.599233741722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.350128812401</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.350128812401</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1200.440343986846</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>766.6655991451407</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1453.595264158347</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>1453.595264158347</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.322306888761</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2476.466852299794</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.324388879105</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1649.038265178759</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>76.13761321162085</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>76.13761321162085</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>378.9152695791559</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>378.9152695791559</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>378.9152695791559</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>378.9152695791559</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>378.9152695791559</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.60449884933</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C46" t="n">
-        <v>817.0427873325549</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D46" t="n">
-        <v>651.1647945340776</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>481.4067907848148</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>304.699736746571</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2213.216455464074</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1926.260947334505</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1654.234542920796</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
-        <v>1408.842788254209</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1181.423117568317</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8142,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558610853</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684623</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664742049</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475238</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>239.5100572483138</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8690,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>817.4976473511605</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>255.8000219838295</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>811.3962159119869</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>353.2215526444228</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9401,16 +9403,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,13 +9643,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9714,16 +9716,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>324.5237132641533</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10193,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>992.4305468772036</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>1082.305540278395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10899,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -10908,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>847.7472627814486</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>417.7964579216515</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11297,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452607</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O44" t="n">
-        <v>817.4976473511597</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.7214713311589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>61.36294431725456</v>
+        <v>55.87832135360377</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>125.201268760105</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.65030257151082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.134485924087</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>54.79268646174603</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>96.56253959275543</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>63.14631452530516</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>223.1369608195781</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.132339546146</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>90.92021546249512</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>328.9586672053413</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>52.01701577190821</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.4463752142671</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>409.4753197773649</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>201.9333177378955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>65.20415515853247</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>531589.7606641769</v>
+        <v>548499.5238952106</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>531589.7606641769</v>
+        <v>551544.1639564447</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470313.8516966072</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470313.8516966071</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>581682.8111612973</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470313.8516966071</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470313.8516966071</v>
+        <v>581682.8111612974</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068472</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="F2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167493</v>
       </c>
       <c r="G2" t="n">
         <v>447828.9465167493</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167493</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167494</v>
@@ -26338,7 +26340,7 @@
         <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167496</v>
@@ -26350,10 +26352,10 @@
         <v>447828.9465167494</v>
       </c>
       <c r="O2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>362087.6407144212</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501576</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998316</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877219</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622576</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909371</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>87578.89003397719</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>87578.89003397718</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26456,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>87578.89003397716</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>87578.89003397716</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26488,7 +26490,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26499,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35883.86707734591</v>
+        <v>35883.86707734596</v>
       </c>
       <c r="C6" t="n">
-        <v>178075.1677370558</v>
+        <v>129216.7404128919</v>
       </c>
       <c r="D6" t="n">
-        <v>178075.1677370557</v>
+        <v>187469.1195217788</v>
       </c>
       <c r="E6" t="n">
-        <v>59166.8697175081</v>
+        <v>79438.28086144431</v>
       </c>
       <c r="F6" t="n">
-        <v>216644.1646396121</v>
+        <v>261793.3900824939</v>
       </c>
       <c r="G6" t="n">
-        <v>172293.5814761248</v>
+        <v>261793.3900824939</v>
       </c>
       <c r="H6" t="n">
         <v>261793.3900824939</v>
@@ -26543,25 +26545,25 @@
         <v>261793.390082494</v>
       </c>
       <c r="J6" t="n">
-        <v>150778.9247375038</v>
+        <v>150778.9247375039</v>
       </c>
       <c r="K6" t="n">
-        <v>261793.3900824941</v>
+        <v>208747.5354437219</v>
       </c>
       <c r="L6" t="n">
-        <v>261793.3900824942</v>
+        <v>252401.0883558716</v>
       </c>
       <c r="M6" t="n">
-        <v>130357.1429250744</v>
+        <v>109593.2191445063</v>
       </c>
       <c r="N6" t="n">
         <v>261793.390082494</v>
       </c>
       <c r="O6" t="n">
-        <v>216644.1646396121</v>
+        <v>261793.3900824941</v>
       </c>
       <c r="P6" t="n">
-        <v>216644.1646396122</v>
+        <v>261793.3900824941</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684623</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483579</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939466</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483579</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939443</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483579</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939466</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>70.51515507043513</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>189.2884255836292</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>38.01107746239643</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27552,10 +27554,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>69.01523248901385</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>80.71087300263304</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.96980923907802</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>34.54479026389073</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>276.0363559438222</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>267.9080130197349</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>80.50874676570891</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.45279053136285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28284,7 +28286,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29041,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-8.523773559098237e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -30469,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30618,7 +30620,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34862,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>117.3049970300783</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558610853</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684623</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684622</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664742049</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.94960388475238</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>239.5100572483138</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>817.4976473511605</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>255.8000219838295</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>811.3962159119869</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>353.2215526444228</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,13 +36363,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>324.5237132641533</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>28.2456490882098</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>992.4305468772036</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>1082.305540278395</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37312,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>288.735183296506</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>687.6096162327044</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>847.7472627814486</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>417.7964579216515</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452607</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="O44" t="n">
-        <v>817.4976473511597</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1538210.739923866</v>
+        <v>1537685.557554834</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916855</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>41.04912457156733</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -670,13 +670,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.9148368797138</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>114.2274546791367</v>
       </c>
       <c r="C4" t="n">
-        <v>132.8250169392109</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>205.5279800085829</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>170.6439395164078</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>103.9583623026385</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>22.30183002559856</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>32.36127543482709</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>132.8988870233421</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.3916857660883</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>114.9577730480035</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5523792046379</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>26.70160847752048</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>83.71046610478319</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2098,10 +2098,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.133574646794441</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2484,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>104.6302585404031</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2532,10 +2532,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>57.17380082342394</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2952,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>100.7890476991254</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -3006,7 +3006,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>80.61608517870646</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3331,7 +3331,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3432,10 +3432,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>77.84041448887314</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3480,13 +3480,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>57.1738008234254</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016037</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9742767430621</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>159.9413188205003</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1209.257267813217</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>780.675593550485</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
         <v>267.8706684926505</v>
-      </c>
-      <c r="K2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>789.5336382545983</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>572.4479444367055</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.9883451770664</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>753.2266345819453</v>
+        <v>720.185388501638</v>
       </c>
       <c r="Y4" t="n">
-        <v>525.8069638960535</v>
+        <v>720.185388501638</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1991.505055583988</v>
+        <v>169.9652025024901</v>
       </c>
       <c r="C5" t="n">
-        <v>1553.362582767411</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>1117.452797941856</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>1087.718457140555</v>
+        <v>74.25941213986529</v>
       </c>
       <c r="F5" t="n">
-        <v>659.8510275497629</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>258.4531961730268</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233698</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947698</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423949</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.6870740423949</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6870740423949</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726424</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726424</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.86569471742</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762198</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720792</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473849</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657686</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657686</v>
+        <v>2217.90022853073</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657686</v>
+        <v>1958.677925847747</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.967455657686</v>
+        <v>1596.060975781573</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.152405109123</v>
+        <v>1423.693360108434</v>
       </c>
       <c r="X5" t="n">
-        <v>2422.050345728838</v>
+        <v>1004.550896687745</v>
       </c>
       <c r="Y5" t="n">
-        <v>2417.804626068896</v>
+        <v>596.2647729873979</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807697</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.147670417412</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639653</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.936966890919</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070806</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326451</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947698</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993459</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>401.0543847161469</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.0543847161469</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>401.0543847161469</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>401.0543847161469</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>401.0543847161469</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813121</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605329</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.277104396037</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>752.277104396037</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>586.3991115975597</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>586.3991115975597</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>409.6920575593159</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>244.1007825851436</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947698</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541668</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253024</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932635</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2498.899221627944</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473849</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179221</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179221</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2254.322061757676</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1975.889061010781</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1688.933552881212</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.907148467503</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1171.515393800916</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.0957231150242</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.45307593959</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>912.8176076703177</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2637.372669426552</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.100425464726</v>
+        <v>2636.557618877989</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.99836608444</v>
+        <v>2621.455559497704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.712242384094</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>822.7991990816217</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>650.2374875648467</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>484.3594947663694</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>484.3594947663694</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
         <v>1221.073045167952</v>
@@ -5050,7 +5050,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5074,19 +5074,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1036.216302815312</v>
+        <v>834.8539430951545</v>
       </c>
       <c r="C13" t="n">
-        <v>920.0973401405612</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D13" t="n">
-        <v>754.2193473420839</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E13" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F13" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5214,37 +5214,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
         <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878955</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176952</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T13" t="n">
-        <v>2538.261260176952</v>
+        <v>2336.898900456793</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.828259430057</v>
+        <v>2058.465899709899</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.872751300487</v>
+        <v>1771.510391580329</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.846346886779</v>
+        <v>1499.483987166621</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.454592220191</v>
+        <v>1254.092232500033</v>
       </c>
       <c r="Y13" t="n">
-        <v>1228.034921534299</v>
+        <v>1026.672561814142</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5278,25 +5278,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
         <v>4943.887948785925</v>
@@ -5305,22 +5305,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5360,19 +5360,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1427.995578770765</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1200.575908084873</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>617.7751448769883</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>441.0680908387445</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>275.4768158645722</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1246.54233171619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133398</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>838.9992856166232</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181459</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5955,7 +5955,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852385</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5977,10 +5977,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5998,43 +5998,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6047,16 +6047,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G24" t="n">
         <v>143.9964924545671</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>449.602989562749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>367.627843534348</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6180,19 +6180,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.537409152261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>554.1655527429566</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>469.4349624223536</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>292.7279083841098</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6654,19 +6654,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1039.550377927472</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2114.610344180331</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>3271.658179390882</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6925,10 +6925,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6946,10 +6946,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3569.079287993934</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993934</v>
@@ -6964,16 +6964,16 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3398.73351020982</v>
+        <v>1090.18767843529</v>
       </c>
       <c r="C37" t="n">
-        <v>3226.171798693044</v>
+        <v>917.6259669185152</v>
       </c>
       <c r="D37" t="n">
-        <v>3060.293805894567</v>
+        <v>751.747974120038</v>
       </c>
       <c r="E37" t="n">
-        <v>2890.535802145304</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>2026.844126920465</v>
       </c>
       <c r="W37" t="n">
-        <v>4063.363554281286</v>
+        <v>1754.817722506757</v>
       </c>
       <c r="X37" t="n">
-        <v>3817.971799614698</v>
+        <v>1509.425967840169</v>
       </c>
       <c r="Y37" t="n">
-        <v>3590.552128928807</v>
+        <v>1282.006297154277</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>809.0580335016147</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L39" t="n">
-        <v>809.0580335016147</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.327823655249</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,43 +7420,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3486.780615022735</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>4988.825572384373</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>4710.392571637479</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>4423.437063507909</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>4151.410659094201</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>3906.018904427614</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>3678.599233741722</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004234</v>
@@ -7654,10 +7654,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7678,22 +7678,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8145,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>117.3049970300783</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558610853</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684623</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684624</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684622</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664742049</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475238</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,11 +8455,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525797</v>
+        <v>92.22506899525615</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9716,16 +9716,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>324.5237132641533</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>847.7472627814486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>55.87832135360377</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>22.86827275269141</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>54.79268646174603</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.43016517136697</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>117.7661826744374</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.14631452530516</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>195.0325855607193</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>90.22000922289698</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>212.132339546146</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4463752142671</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.20415515853247</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>548499.5238952106</v>
+        <v>548499.5238952107</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581682.8111612974</v>
+        <v>581682.8111612973</v>
       </c>
     </row>
     <row r="9">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="E2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="F2" t="n">
+        <v>447828.9465167494</v>
+      </c>
+      <c r="G2" t="n">
         <v>447828.9465167495</v>
       </c>
-      <c r="F2" t="n">
-        <v>447828.9465167493</v>
-      </c>
-      <c r="G2" t="n">
-        <v>447828.9465167493</v>
-      </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="J2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="K2" t="n">
         <v>447828.9465167495</v>
-      </c>
-      <c r="K2" t="n">
-        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
         <v>447828.9465167496</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501576</v>
+        <v>66587.76789501618</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998316</v>
+        <v>11527.59554998277</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877219</v>
+        <v>53045.85463877252</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622576</v>
+        <v>9392.301726622252</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.4997909371</v>
+        <v>187964.4997909369</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.2138080025</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26490,7 +26490,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35883.86707734596</v>
+        <v>35883.86707734603</v>
       </c>
       <c r="C6" t="n">
-        <v>129216.7404128919</v>
+        <v>129216.7404128917</v>
       </c>
       <c r="D6" t="n">
-        <v>187469.1195217788</v>
+        <v>187469.1195217791</v>
       </c>
       <c r="E6" t="n">
-        <v>79438.28086144431</v>
+        <v>79415.05652206155</v>
       </c>
       <c r="F6" t="n">
-        <v>261793.3900824939</v>
+        <v>261770.1657431114</v>
       </c>
       <c r="G6" t="n">
-        <v>261793.3900824939</v>
+        <v>261770.1657431115</v>
       </c>
       <c r="H6" t="n">
-        <v>261793.3900824939</v>
+        <v>261770.1657431114</v>
       </c>
       <c r="I6" t="n">
-        <v>261793.390082494</v>
+        <v>261770.1657431115</v>
       </c>
       <c r="J6" t="n">
-        <v>150778.9247375039</v>
+        <v>150755.7003981212</v>
       </c>
       <c r="K6" t="n">
-        <v>208747.5354437219</v>
+        <v>208724.3111043389</v>
       </c>
       <c r="L6" t="n">
-        <v>252401.0883558716</v>
+        <v>252377.8640164892</v>
       </c>
       <c r="M6" t="n">
-        <v>109593.2191445063</v>
+        <v>109569.9948051238</v>
       </c>
       <c r="N6" t="n">
-        <v>261793.390082494</v>
+        <v>261770.1657431115</v>
       </c>
       <c r="O6" t="n">
-        <v>261793.3900824941</v>
+        <v>261770.1657431115</v>
       </c>
       <c r="P6" t="n">
-        <v>261793.3900824941</v>
+        <v>261770.1657431115</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684623</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483579</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939466</v>
+        <v>37.11037423939338</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201048</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483579</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939443</v>
+        <v>37.11037423939315</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768886</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483579</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939466</v>
+        <v>37.11037423939338</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>392.7119235168436</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.2884255836292</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>75.67297785266051</v>
       </c>
       <c r="C4" t="n">
-        <v>38.01107746239643</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>80.71087300263304</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>230.1629605266692</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>34.54479026389073</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>261.7841230226753</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>50.45407964317427</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>267.9080130197349</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.50874676570891</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28286,13 +28286,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28818,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.523773559098237e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30170,7 +30170,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30620,7 +30620,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>117.3049970300783</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558610853</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684623</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684624</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684622</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664742049</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.94960388475238</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,11 +35175,11 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,10 +35254,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>92.22506899525797</v>
+        <v>92.22506899525615</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36436,16 +36436,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>324.5237132641533</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>507.105909296742</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37083,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>847.7472627814486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505214</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
